--- a/charts/Mesh_results.xlsx
+++ b/charts/Mesh_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saxion_cmgt\2nd year\3rd term\Advanced Tools\advanced-tools-collision-eval\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DF2B87-1C1E-4D66-BCD7-30F1A0824550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F654E-6AB1-4143-8E5E-2BD38001388D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA5C05D3-6B78-412A-B007-123197378E49}"/>
   </bookViews>
@@ -702,6 +702,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12128284034036775"/>
+                  <c:y val="-0.64326807509717021"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2123,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE17EB9E-3235-4791-B6BE-02114EEFFCCC}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
